--- a/medicine/Enfance/Andreas_Steinhöfel/Andreas_Steinhöfel.xlsx
+++ b/medicine/Enfance/Andreas_Steinhöfel/Andreas_Steinhöfel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andreas_Steinh%C3%B6fel</t>
+          <t>Andreas_Steinhöfel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andreas Steinhöfel, né le 14 janvier 1962 à Battenberg (Hesse), est un auteur  allemand  de livres pour enfants et pour jeunes adultes, également traducteur.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andreas_Steinh%C3%B6fel</t>
+          <t>Andreas_Steinhöfel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Andreas Steinhöfel grandit avec ses deux frères dans la petite ville de Biedenkopf, au centre de la Hesse. Il commence des études de biologie et d'anglais avant de s'orienter dans les études des médias à l'université de Marburg. Après avoir obtenu son diplôme en 1991, son premier livre Dirk und ich (de) est publié.
 Un de ses livres les plus réputés est Paul Vier und die Schröders (1992), devenu l'une des lectures standard dans les écoles allemandes. L'adaptation cinématographique du livre a remporté le Deutscher Kinderfilmpreis en 1995. Son roman Die Mitte der Welt (de) est particulièrement populaire parmi les adolescents, et a été nommé pour le Deutscher Jugendliteraturpreis 1999, ainsi que la suite Dirk Defender – Geschichten aus der Mitte der Welt. Die Mitte der Welt a paru en français sous le titre Le Milieu du Monde en novembre 2018 aux Éditions Aleph.
 Steinhöfel vit et travaille en Hesse et a été le cohabitant du DJ de la culture techno Gianni Vitiello (de) jusqu'à la mort de ce dernier, en décembre 2009.
-Il est lauréat du Deutscher Jugendliteraturpreis 2013[1] pour l'ensemble de son œuvre.
-Il est l'auteur sélectionné pour représenter son pays, l'Allemagne, pour le prix Hans-Christian-Andersen 2022, dans la catégorie Écriture[2].
-En 2024, il est sélectionné pour la quatrième année d'affilée pour le prix international suédois, le prix commémoratif Astrid-Lindgren[3].
+Il est lauréat du Deutscher Jugendliteraturpreis 2013 pour l'ensemble de son œuvre.
+Il est l'auteur sélectionné pour représenter son pays, l'Allemagne, pour le prix Hans-Christian-Andersen 2022, dans la catégorie Écriture.
+En 2024, il est sélectionné pour la quatrième année d'affilée pour le prix international suédois, le prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andreas_Steinh%C3%B6fel</t>
+          <t>Andreas_Steinhöfel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dirk und ich, Carlsen Verlag, Hambourg, 1991
 Paul Vier und die Schröders, Carlsen Verlag, Hambourg, 1992
@@ -580,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Andreas_Steinh%C3%B6fel</t>
+          <t>Andreas_Steinhöfel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -598,14 +614,16 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>(international) « Liste d'honneur » 2000 catégorie Écriture, de l'Union internationale pour les livres de jeunesse[4] pour Die Mitte der Welt (Le Milieu du Monde)
-En 2009, Andreas Steinhöfel a reçu le prix Erich Kästner (de) de littérature[1]. La même année, son livre Rico, Oskar und die Tieferschatten a reçu le Prix littéraire allemand pour la jeunesse (Deutscher Jugendliteraturpreis), le Prix catholique de la littérature pour l'enfance et la jeunesse (Katholischer Kinder- und Jugendbuchpreis (de)) et le Lesekünstler 2009.
-(international) « Liste d'honneur » 2010 catégorie Écriture, de l'Union internationale pour les livres de jeunesse[5] pour Rico, Oskar und die Tieferschatten
-Deutscher Jugendliteraturpreis 2013 pour l'ensemble de son œuvre[1]
- Sélection pour le Prix Hans-Christian-Andersen 2022, dans la catégorie Écriture[2]
- Sélection pour le Prix commémoratif Astrid-Lindgren de 2021 à 2024[3]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(international) « Liste d'honneur » 2000 catégorie Écriture, de l'Union internationale pour les livres de jeunesse pour Die Mitte der Welt (Le Milieu du Monde)
+En 2009, Andreas Steinhöfel a reçu le prix Erich Kästner (de) de littérature. La même année, son livre Rico, Oskar und die Tieferschatten a reçu le Prix littéraire allemand pour la jeunesse (Deutscher Jugendliteraturpreis), le Prix catholique de la littérature pour l'enfance et la jeunesse (Katholischer Kinder- und Jugendbuchpreis (de)) et le Lesekünstler 2009.
+(international) « Liste d'honneur » 2010 catégorie Écriture, de l'Union internationale pour les livres de jeunesse pour Rico, Oskar und die Tieferschatten
+Deutscher Jugendliteraturpreis 2013 pour l'ensemble de son œuvre
+ Sélection pour le Prix Hans-Christian-Andersen 2022, dans la catégorie Écriture
+ Sélection pour le Prix commémoratif Astrid-Lindgren de 2021 à 2024</t>
         </is>
       </c>
     </row>
